--- a/output/df_weights.xlsx
+++ b/output/df_weights.xlsx
@@ -12,7 +12,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t xml:space="preserve"/>
+  </si>
   <si>
     <t xml:space="preserve">1982</t>
   </si>
@@ -48,6 +51,24 @@
   </si>
   <si>
     <t xml:space="preserve">2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caiman crocodilus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crocodylus acutus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crocodylus intermedius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melanosuchus niger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paleosuchus palpebrosus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paleosuchus trigonatus</t>
   </si>
 </sst>
 </file>
@@ -416,16 +437,19 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2"/>
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
       <c r="B2"/>
       <c r="C2"/>
       <c r="D2"/>
       <c r="E2"/>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
+      <c r="F2"/>
       <c r="G2" t="n">
         <v>0</v>
       </c>
@@ -442,12 +466,15 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>3</v>
+      <c r="A3" t="s">
+        <v>14</v>
       </c>
       <c r="B3" t="n">
         <v>3</v>
@@ -459,7 +486,7 @@
         <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
@@ -480,12 +507,15 @@
         <v>2</v>
       </c>
       <c r="L3" t="n">
+        <v>2</v>
+      </c>
+      <c r="M3" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
+      <c r="A4" t="s">
+        <v>15</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -500,7 +530,7 @@
         <v>3</v>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
         <v>4</v>
@@ -518,12 +548,15 @@
         <v>4</v>
       </c>
       <c r="L4" t="n">
+        <v>4</v>
+      </c>
+      <c r="M4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
+      <c r="A5" t="s">
+        <v>16</v>
       </c>
       <c r="B5" t="n">
         <v>3</v>
@@ -535,13 +568,13 @@
         <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -556,18 +589,21 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6"/>
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6"/>
       <c r="E6"/>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
+      <c r="F6"/>
       <c r="G6" t="n">
         <v>0</v>
       </c>
@@ -584,18 +620,21 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7"/>
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
       <c r="B7"/>
       <c r="C7"/>
       <c r="D7"/>
       <c r="E7"/>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
+      <c r="F7"/>
       <c r="G7" t="n">
         <v>0</v>
       </c>
@@ -612,6 +651,9 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
         <v>0</v>
       </c>
     </row>
